--- a/Data/Gradient_Month_12.xlsx
+++ b/Data/Gradient_Month_12.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,131 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.948644638061523</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.441019535064697</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.955584764480591</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12.23557758331299</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18372</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.90306282043457</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.523025751113892</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.123027563095093</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.88702392578125</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18502</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.851481914520264</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.523171305656433</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-6.16433572769165</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.98783111572266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>18317</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.851562023162842</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.553480625152588</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-6.273685932159424</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.66537475585938</v>
+      </c>
+      <c r="F24" t="n">
+        <v>18231</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.857754707336426</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.714037775993347</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-6.256599903106689</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15.21708488464355</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18189</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
